--- a/capitalism/ginis_comparison.xlsx
+++ b/capitalism/ginis_comparison.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrietbrookesgray/Dropbox/My Mac (Harriets-Air.fios-router.home)/Documents/GitHub/bfh-textbook/capitalism/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63218BDA-1799-5942-88CA-D43912CD4337}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -96,18 +102,12 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
     <t>Israel</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -142,12 +142,18 @@
   </si>
   <si>
     <t>DisposableGini</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="36"/>
@@ -233,6 +239,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -557,16 +571,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="45" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="47" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="90">
+    <row r="1" spans="1:4" ht="96" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -594,7 +608,7 @@
         <v>0.23630889999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -608,7 +622,7 @@
         <v>0.24360129999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -622,7 +636,7 @@
         <v>0.24553140000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -636,7 +650,7 @@
         <v>0.2472915</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -650,7 +664,7 @@
         <v>0.25233660000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -664,7 +678,7 @@
         <v>0.25413039999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -678,7 +692,7 @@
         <v>0.2622911</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -692,7 +706,7 @@
         <v>0.26839669999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -706,7 +720,7 @@
         <v>0.2823466</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -720,7 +734,7 @@
         <v>0.28684880000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -734,7 +748,7 @@
         <v>0.28819030000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -748,7 +762,7 @@
         <v>0.29073260000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -762,7 +776,7 @@
         <v>0.290829</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -776,7 +790,7 @@
         <v>0.2942285</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -790,7 +804,7 @@
         <v>0.30181550000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -804,7 +818,7 @@
         <v>0.30743860000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -818,7 +832,7 @@
         <v>0.30993349999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -832,7 +846,7 @@
         <v>0.31718439999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -846,7 +860,7 @@
         <v>0.31792120000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -860,7 +874,7 @@
         <v>0.32486209999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -874,7 +888,7 @@
         <v>0.327208</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -888,7 +902,7 @@
         <v>0.32803500000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -902,9 +916,9 @@
         <v>0.32971400000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4">
         <v>2010</v>
@@ -916,9 +930,9 @@
         <v>0.33523890000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
         <v>2010</v>
@@ -930,9 +944,9 @@
         <v>0.35485250000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4">
         <v>2010</v>
@@ -944,9 +958,9 @@
         <v>0.38102279999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4">
         <v>2013</v>
@@ -958,9 +972,9 @@
         <v>0.3901232</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4">
         <v>2010</v>
@@ -972,9 +986,9 @@
         <v>0.43710510000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4">
         <v>2004</v>
@@ -986,9 +1000,9 @@
         <v>0.44655260000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4">
         <v>2011</v>
@@ -1000,9 +1014,9 @@
         <v>0.462231</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4">
         <v>2012</v>
@@ -1014,9 +1028,9 @@
         <v>0.48477940000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4">
         <v>2010</v>
@@ -1028,9 +1042,9 @@
         <v>0.49433329999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4">
         <v>2006</v>
@@ -1042,9 +1056,9 @@
         <v>0.501641</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4">
         <v>2004</v>
@@ -1056,9 +1070,9 @@
         <v>0.50172329999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4">
         <v>2002</v>
@@ -1070,9 +1084,9 @@
         <v>0.50682280000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4">
         <v>2004</v>
@@ -1084,9 +1098,9 @@
         <v>0.51712080000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4">
         <v>2010</v>
